--- a/clinics.xlsx
+++ b/clinics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Megan/Desktop/App/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE795432-991B-6D4D-97C9-FD688F9144DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7F86C-45BB-DD47-A981-7EA95996AB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{B3AAF915-AFDE-5B47-B938-4E361BC29F0B}"/>
   </bookViews>
@@ -4245,7 +4245,7 @@
   <dimension ref="A1:O238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4299,7 +4299,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>

--- a/clinics.xlsx
+++ b/clinics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Megan/Desktop/App/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7F86C-45BB-DD47-A981-7EA95996AB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680F183-F2FD-4141-9DC8-785A3F3879AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{B3AAF915-AFDE-5B47-B938-4E361BC29F0B}"/>
   </bookViews>
@@ -3821,7 +3821,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3903,6 +3903,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4245,7 +4254,7 @@
   <dimension ref="A1:O238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4375,31 +4384,31 @@
       <c r="B4" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="35" t="s">
         <v>340</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="34">
         <v>51.074314999999999</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="34">
         <v>-114.14778800000001</v>
       </c>
     </row>
@@ -12671,6 +12680,7 @@
     <hyperlink ref="H25" r:id="rId145" display="http://www.cbi.ca/" xr:uid="{094D5905-5A63-3C49-BFC4-B8D5858962B6}"/>
     <hyperlink ref="H229" r:id="rId146" xr:uid="{9FD0E125-D408-1447-B38C-3C3BA9047786}"/>
     <hyperlink ref="H225" r:id="rId147" display="https://pharmacy-nutrition.usask.ca/mac/painclinic.php" xr:uid="{31AD4AF2-AB84-6549-B203-EDE44F710BB6}"/>
+    <hyperlink ref="H4" r:id="rId148" xr:uid="{E17B6061-012A-BE46-927F-022FC197BD04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
